--- a/data/scores_with_labels.xlsx
+++ b/data/scores_with_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CProject\ImageProcessing\Trend-similarity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ED0755-594D-4232-9D30-870D8FF8C857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C68ED8-E122-481B-93E2-21BE828F1BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12192" yWindow="1548" windowWidth="25452" windowHeight="14664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="21012" windowHeight="14664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -714,13 +714,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
